--- a/src/16 Scientific Libraries/06 Spreadsheets/data/charts.xlsx
+++ b/src/16 Scientific Libraries/06 Spreadsheets/data/charts.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -131,14 +131,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="13"/>
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -161,7 +161,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -188,8 +188,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -215,8 +215,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
       <area3DChart>
@@ -256,7 +256,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -280,7 +280,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -304,7 +304,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -366,7 +366,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>2</col>
@@ -381,9 +381,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -403,9 +403,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
